--- a/Excel_Challenge_516 - Product of Digits of Result is Equal to Number.xlsx
+++ b/Excel_Challenge_516 - Product of Digits of Result is Equal to Number.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D006F32D-536B-445A-9178-B7185A08A87C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCA518A-85C9-4A47-A8CB-96D685FFF998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38490" yWindow="10440" windowWidth="19380" windowHeight="10530" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
+    <sheet name="EDA" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_fp">_xlfn.LAMBDA(_xlpm.x,PRODUCT(--MID(_xlpm.x,_xlfn.SEQUENCE(LEN(_xlpm.x)),1)))</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,8 +39,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="5">
   <si>
     <t>Number</t>
   </si>
@@ -48,6 +74,9 @@
   </si>
   <si>
     <t>https://www.linkedin.com/feed/update/urn:li:activity:7226799223977967617/</t>
+  </si>
+  <si>
+    <t>What would the smallest number look like?</t>
   </si>
 </sst>
 </file>
@@ -572,7 +601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
@@ -670,4 +699,234 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE9E660-7948-4843-A732-4178C5A1BC64}">
+  <dimension ref="A1:R12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>27</v>
+      </c>
+      <c r="C2" cm="1">
+        <f t="array" ref="C2" xml:space="preserve">
+_xlfn.LAMBDA(_xlpm.q,
+_xlfn.LET(
+_xlpm.c, _xlfn.SEQUENCE(9^(LEN(_xlpm.q)+2)),
+_xlpm.z, _xlfn.MAP(_xlpm.c,_xlfn.LAMBDA(_xlpm.x,_fp(_xlpm.x))),
+IFERROR(MIN(_xlfn._xlws.FILTER(_xlpm.c,_xlpm.z=_xlpm.q)),"NP")
+)
+)(A2)</f>
+        <v>27</v>
+      </c>
+      <c r="H2" cm="1">
+        <f t="array" ref="H2">_xlfn.LAMBDA(_xlpm.x,PRODUCT(--MID(_xlpm.x,_xlfn.SEQUENCE(LEN(_xlpm.x)),1)))(27)</f>
+        <v>14</v>
+      </c>
+      <c r="I2" cm="1">
+        <f t="array" ref="I2">_fp(B2)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>27</v>
+      </c>
+      <c r="B3">
+        <v>39</v>
+      </c>
+      <c r="C3" cm="1">
+        <f t="array" ref="C3" xml:space="preserve">
+_xlfn.LAMBDA(_xlpm.q,
+_xlfn.LET(
+_xlpm.c, _xlfn.SEQUENCE(9^(LEN(_xlpm.q)+1)),
+_xlpm.z, _xlfn.MAP(_xlpm.c,_xlfn.LAMBDA(_xlpm.x,_fp(_xlpm.x))),
+IFERROR(MIN(_xlfn._xlws.FILTER(_xlpm.c,_xlpm.z=_xlpm.q)),"NP")
+)
+)(A3)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>93</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="str" cm="1">
+        <f t="array" ref="C4" xml:space="preserve">
+_xlfn.LAMBDA(_xlpm.q,
+_xlfn.LET(
+_xlpm.c, _xlfn.SEQUENCE(9^(LEN(_xlpm.q)+1)),
+_xlpm.z, _xlfn.MAP(_xlpm.c,_xlfn.LAMBDA(_xlpm.x,_fp(_xlpm.x))),
+IFERROR(MIN(_xlfn._xlws.FILTER(_xlpm.c,_xlpm.z=_xlpm.q)),"NP")
+)
+)(A4)</f>
+        <v>NP</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>108</v>
+      </c>
+      <c r="B5">
+        <v>269</v>
+      </c>
+      <c r="C5" cm="1">
+        <f t="array" ref="C5" xml:space="preserve">
+_xlfn.LAMBDA(_xlpm.q,
+_xlfn.LET(
+_xlpm.c, _xlfn.SEQUENCE(9^(LEN(_xlpm.q)+1)),
+_xlpm.z, _xlfn.MAP(_xlpm.c,_xlfn.LAMBDA(_xlpm.x,_fp(_xlpm.x))),
+IFERROR(MIN(_xlfn._xlws.FILTER(_xlpm.c,_xlpm.z=_xlpm.q)),"NP")
+)
+)(A5)</f>
+        <v>269</v>
+      </c>
+      <c r="H5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>192</v>
+      </c>
+      <c r="B6">
+        <v>388</v>
+      </c>
+      <c r="C6" cm="1">
+        <f t="array" ref="C6" xml:space="preserve">
+_xlfn.LAMBDA(_xlpm.q,
+_xlfn.LET(
+_xlpm.c, _xlfn.SEQUENCE(9^(LEN(_xlpm.q)+1)),
+_xlpm.z, _xlfn.MAP(_xlpm.c,_xlfn.LAMBDA(_xlpm.x,_fp(_xlpm.x))),
+IFERROR(MIN(_xlfn._xlws.FILTER(_xlpm.c,_xlpm.z=_xlpm.q)),"NP")
+)
+)(A6)</f>
+        <v>388</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>500</v>
+      </c>
+      <c r="B7">
+        <v>4555</v>
+      </c>
+      <c r="C7" cm="1">
+        <f t="array" ref="C7" xml:space="preserve">
+_xlfn.LAMBDA(_xlpm.q,
+_xlfn.LET(
+_xlpm.c, _xlfn.SEQUENCE(9^(LEN(_xlpm.q)+1)),
+_xlpm.z, _xlfn.MAP(_xlpm.c,_xlfn.LAMBDA(_xlpm.x,_fp(_xlpm.x))),
+IFERROR(MIN(_xlfn._xlws.FILTER(_xlpm.c,_xlpm.z=_xlpm.q)),"NP")
+)
+)(A7)</f>
+        <v>4555</v>
+      </c>
+      <c r="F7">
+        <f>9*9*9</f>
+        <v>729</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>924</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="str" cm="1">
+        <f t="array" ref="C8" xml:space="preserve">
+_xlfn.LAMBDA(_xlpm.q,
+_xlfn.LET(
+_xlpm.c, _xlfn.SEQUENCE(9^(LEN(_xlpm.q)+1)),
+_xlpm.z, _xlfn.MAP(_xlpm.c,_xlfn.LAMBDA(_xlpm.x,_fp(_xlpm.x))),
+IFERROR(MIN(_xlfn._xlws.FILTER(_xlpm.c,_xlpm.z=_xlpm.q)),"NP")
+)
+)(A8)</f>
+        <v>NP</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1024</v>
+      </c>
+      <c r="B9">
+        <v>2888</v>
+      </c>
+      <c r="C9" cm="1">
+        <f t="array" ref="C9" xml:space="preserve">
+_xlfn.LAMBDA(_xlpm.q,
+_xlfn.LET(
+_xlpm.c, _xlfn.SEQUENCE(9^(LEN(_xlpm.q)+1)),
+_xlpm.z, _xlfn.MAP(_xlpm.c,_xlfn.LAMBDA(_xlpm.x,_fp(_xlpm.x))),
+IFERROR(MIN(_xlfn._xlws.FILTER(_xlpm.c,_xlpm.z=_xlpm.q)),"NP")
+)
+)(A9)</f>
+        <v>2888</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2196</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="str" cm="1">
+        <f t="array" ref="C10" xml:space="preserve">
+_xlfn.LAMBDA(_xlpm.q,
+_xlfn.LET(
+_xlpm.c, _xlfn.SEQUENCE(9^(LEN(_xlpm.q)+1)),
+_xlpm.z, _xlfn.MAP(_xlpm.c,_xlfn.LAMBDA(_xlpm.x,_fp(_xlpm.x))),
+IFERROR(MIN(_xlfn._xlws.FILTER(_xlpm.c,_xlpm.z=_xlpm.q)),"NP")
+)
+)(A10)</f>
+        <v>NP</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B12" cm="1">
+        <f t="array" ref="B12" xml:space="preserve">
+_xlfn.LAMBDA(_xlpm.q,
+_xlfn.LET(
+_xlpm.c, _xlfn.SEQUENCE(9^LEN(_xlpm.q)),
+_xlpm.z, _xlfn.MAP(_xlpm.c,_xlfn.LAMBDA(_xlpm.x,_fp(_xlpm.x))),
+MIN(_xlfn._xlws.FILTER(_xlpm.c,_xlpm.z=_xlpm.q))
+)
+)(14)</f>
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Excel_Challenge_516 - Product of Digits of Result is Equal to Number.xlsx
+++ b/Excel_Challenge_516 - Product of Digits of Result is Equal to Number.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCA518A-85C9-4A47-A8CB-96D685FFF998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67C031A-A96B-4370-B630-1ACB7C24BFF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38490" yWindow="10440" windowWidth="19380" windowHeight="10530" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38490" yWindow="10440" windowWidth="19380" windowHeight="10530" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
     <sheet name="EDA" sheetId="2" r:id="rId2"/>
+    <sheet name="My_Single_Function" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_fp">_xlfn.LAMBDA(_xlpm.x,PRODUCT(--MID(_xlpm.x,_xlfn.SEQUENCE(LEN(_xlpm.x)),1)))</definedName>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="5">
   <si>
     <t>Number</t>
   </si>
@@ -83,7 +84,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +96,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -129,16 +138,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -705,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE9E660-7948-4843-A732-4178C5A1BC64}">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -722,7 +734,7 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -744,6 +756,10 @@
 )(A2)</f>
         <v>27</v>
       </c>
+      <c r="D2" t="b">
+        <f>B2=C2</f>
+        <v>1</v>
+      </c>
       <c r="H2" cm="1">
         <f t="array" ref="H2">_xlfn.LAMBDA(_xlpm.x,PRODUCT(--MID(_xlpm.x,_xlfn.SEQUENCE(LEN(_xlpm.x)),1)))(27)</f>
         <v>14</v>
@@ -771,6 +787,10 @@
 )(A3)</f>
         <v>39</v>
       </c>
+      <c r="D3" t="b">
+        <f t="shared" ref="D3:D10" si="0">B3=C3</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -790,6 +810,10 @@
 )(A4)</f>
         <v>NP</v>
       </c>
+      <c r="D4" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -809,6 +833,10 @@
 )(A5)</f>
         <v>269</v>
       </c>
+      <c r="D5" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="H5" t="s">
         <v>4</v>
       </c>
@@ -831,6 +859,10 @@
 )(A6)</f>
         <v>388</v>
       </c>
+      <c r="D6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -850,6 +882,10 @@
 )(A7)</f>
         <v>4555</v>
       </c>
+      <c r="D7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="F7">
         <f>9*9*9</f>
         <v>729</v>
@@ -873,6 +909,10 @@
 )(A8)</f>
         <v>NP</v>
       </c>
+      <c r="D8" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -892,6 +932,10 @@
 )(A9)</f>
         <v>2888</v>
       </c>
+      <c r="D9" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -910,6 +954,10 @@
 )
 )(A10)</f>
         <v>NP</v>
+      </c>
+      <c r="D10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
@@ -926,7 +974,187 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="R1" r:id="rId1" xr:uid="{019D8736-8EFD-408D-8C76-CBB1BE4D212E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EFB5AC-7A9A-4AAA-A76B-AD6F514CC9EB}">
+  <dimension ref="A1:R10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>27</v>
+      </c>
+      <c r="C2" cm="1">
+        <f t="array" ref="C2:C10" xml:space="preserve">
+_xlfn.MAP(A2:A10,_xlfn.LAMBDA(_xlpm.q,
+_xlfn.LET(
+_xlpm.c, _xlfn.SEQUENCE(9^(LEN(_xlpm.q)+2)),
+_xlpm.z, _xlfn.MAP(_xlpm.c,_xlfn.LAMBDA(_xlpm.x,_fp(_xlpm.x))),
+IFERROR(MIN(_xlfn._xlws.FILTER(_xlpm.c,_xlpm.z=_xlpm.q)),"NP")
+)
+))</f>
+        <v>27</v>
+      </c>
+      <c r="D2" t="b">
+        <f>B2=C2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>27</v>
+      </c>
+      <c r="B3">
+        <v>39</v>
+      </c>
+      <c r="C3">
+        <v>39</v>
+      </c>
+      <c r="D3" t="b">
+        <f t="shared" ref="D3:D10" si="0">B3=C3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>93</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="str">
+        <v>NP</v>
+      </c>
+      <c r="D4" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>108</v>
+      </c>
+      <c r="B5">
+        <v>269</v>
+      </c>
+      <c r="C5">
+        <v>269</v>
+      </c>
+      <c r="D5" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>192</v>
+      </c>
+      <c r="B6">
+        <v>388</v>
+      </c>
+      <c r="C6">
+        <v>388</v>
+      </c>
+      <c r="D6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>500</v>
+      </c>
+      <c r="B7">
+        <v>4555</v>
+      </c>
+      <c r="C7">
+        <v>4555</v>
+      </c>
+      <c r="D7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>924</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="str">
+        <v>NP</v>
+      </c>
+      <c r="D8" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1024</v>
+      </c>
+      <c r="B9">
+        <v>2888</v>
+      </c>
+      <c r="C9">
+        <v>2888</v>
+      </c>
+      <c r="D9" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2196</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="str">
+        <v>NP</v>
+      </c>
+      <c r="D10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="R1" r:id="rId1" xr:uid="{EDDCDB72-680E-494D-B62D-7623BA22585D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel_Challenge_516 - Product of Digits of Result is Equal to Number.xlsx
+++ b/Excel_Challenge_516 - Product of Digits of Result is Equal to Number.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67C031A-A96B-4370-B630-1ACB7C24BFF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98112F89-BAE4-4326-A898-9A7BEA62F5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38490" yWindow="10440" windowWidth="19380" windowHeight="10530" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
@@ -987,7 +987,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
